--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251028_201300.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251028_201300.xlsx
@@ -5471,7 +5471,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
